--- a/lab4/lab4.xlsx
+++ b/lab4/lab4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>x</t>
   </si>
@@ -49,74 +49,83 @@
     <t>СДНФ</t>
   </si>
   <si>
-    <t>f(x,y,z) = (  x /\ y /\ z)  \/ ( x /\ y /\ !z) \/ (x /\ !y /\ !y) \/ ( !x /\ !y /\ !z ) \/ (!x /\ !y /\ z ) \/ (!x /\ y /\ !z)</t>
-  </si>
-  <si>
     <t>СКНФ</t>
   </si>
   <si>
-    <t xml:space="preserve">(  x /\ y /\ z) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">( x /\ y /\ !z) </t>
-  </si>
-  <si>
-    <t>(x /\ !y /\ !y)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( !x /\ !y /\ !z ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (!x /\ !y /\ z )</t>
-  </si>
-  <si>
-    <t>(!x /\ y /\ !z)</t>
-  </si>
-  <si>
     <t>Результат СДНФ</t>
   </si>
   <si>
-    <t>f (x,y,z) = (!x /\ y /\ !z) \/ (x /\ !y /\ !z)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (x /\ !y /\ !z)</t>
-  </si>
-  <si>
-    <t>Результат СКНФ</t>
-  </si>
-  <si>
     <t>ССДНФ</t>
   </si>
   <si>
-    <t>f(x,y,z) = ( x /\ y ) \/ (!x /\ !y) \/ ( !x /\ y /\ !z)</t>
-  </si>
-  <si>
-    <t>x /\ y</t>
-  </si>
-  <si>
-    <t>!x /\ !y</t>
-  </si>
-  <si>
-    <t>!x /\ y /\ !z</t>
-  </si>
-  <si>
     <t>ССКНФ</t>
   </si>
   <si>
-    <t>f(x,y,z) = !z /\ (x \/ y)</t>
-  </si>
-  <si>
-    <t>x \/ y</t>
-  </si>
-  <si>
-    <t>!z /\ (x \/ y)</t>
+    <t>(!z ↔ y) &lt;-&gt; (!z |( y⊕!x))</t>
+  </si>
+  <si>
+    <t>(!x /\ !y /\ z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( !x /\ y /\ !z ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( !x /\ y /\ z) </t>
+  </si>
+  <si>
+    <t>f(x,y,z) = ( x /\ y /\ !z ) \/ (!x /\ y /\ z) \/ ( !x /\ !y /\ z ) \/ ( !x /\ y /\ !z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(  x /\ y /\ !z) </t>
+  </si>
+  <si>
+    <t>f (x,y,z) = (!x \/ !y \/ !z) /\ ( !x \/ y \/ !z) /\ (!x \/ y \/ z ) /\ (x \/ y \/ z)</t>
+  </si>
+  <si>
+    <t>!x \/ !y \/ !z</t>
+  </si>
+  <si>
+    <t>!x \/ y \/ !z</t>
+  </si>
+  <si>
+    <t>!x \/ y \/ z</t>
+  </si>
+  <si>
+    <t>x \/ y \/ z</t>
+  </si>
+  <si>
+    <t>результат СКНФ</t>
+  </si>
+  <si>
+    <t>y /\ !z</t>
+  </si>
+  <si>
+    <t>!x /\ z</t>
+  </si>
+  <si>
+    <t>f(x,y,z) = (y ∧ !z) ∨ (!x ∧ z)</t>
+  </si>
+  <si>
+    <t>(y ∧ !z) ∨ (!x ∧ z)</t>
+  </si>
+  <si>
+    <t>f(x,y,z) = (¬x ∨ ¬z) ∧ (y ∨ z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!x \/ !z </t>
+  </si>
+  <si>
+    <t>y \/ z</t>
+  </si>
+  <si>
+    <t>f(x,y,z) = c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,16 +140,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -196,11 +223,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -209,18 +260,46 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,10 +593,14 @@
     <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,8 +625,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
@@ -561,23 +647,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="b">
-        <f>IF(D2=B2,TRUE,FALSE)</f>
+        <f>D2=B2</f>
         <v>0</v>
       </c>
       <c r="F2" s="3" t="b">
-        <f>NOT(A2)</f>
+        <f t="shared" ref="F2:F9" si="0">NOT(A2)</f>
         <v>0</v>
       </c>
       <c r="G2" s="3" t="b">
-        <f>B2&lt;&gt;F2</f>
+        <f t="shared" ref="G2:G9" si="1">B2&lt;&gt;F2</f>
         <v>1</v>
       </c>
       <c r="H2" s="3" t="b">
         <f>OR(D2,G2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I2" s="11" t="b">
+        <f>E2=H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
@@ -591,27 +681,31 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="b">
-        <f t="shared" ref="D3:D4" si="0">NOT(C3)</f>
+        <f t="shared" ref="D3:D4" si="2">NOT(C3)</f>
         <v>1</v>
       </c>
       <c r="E3" s="3" t="b">
-        <f t="shared" ref="E3:E4" si="1">IF(D3=B3,TRUE,FALSE)</f>
+        <f t="shared" ref="E3:E9" si="3">D3=B3</f>
         <v>1</v>
       </c>
       <c r="F3" s="3" t="b">
-        <f>NOT(A3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f>B3&lt;&gt;F3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H3" s="3" t="b">
-        <f t="shared" ref="H3:H4" si="2">OR(D3,G3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H3:H4" si="4">OR(D3,G3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="b">
+        <f t="shared" ref="I3:I9" si="5">E3=H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <f>TRUE</f>
         <v>1</v>
@@ -625,27 +719,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="b">
+      <c r="G4" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <f>NOT(A4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <f>B4&lt;&gt;F4</f>
         <v>0</v>
       </c>
       <c r="H4" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
@@ -663,23 +761,27 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="b">
-        <f>IF(D5=B5,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F5" s="3" t="b">
-        <f>NOT(A5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="3" t="b">
-        <f>B5&lt;&gt;F5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="3" t="b">
         <f>OR(D5,G5)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -697,23 +799,27 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="b">
-        <f>IF(D6=B6,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F6" s="3" t="b">
-        <f>NOT(A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="3" t="b">
-        <f>B6&lt;&gt;F6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="3" t="b">
         <f>OR(D6,G6)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -731,23 +837,27 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="b">
-        <f>IF(D7=B7,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7" s="3" t="b">
-        <f>NOT(A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="3" t="b">
-        <f>B7&lt;&gt;F7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="3" t="b">
         <f>OR(D7,G7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" s="10" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -765,23 +875,27 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="b">
-        <f>IF(D8=B8,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F8" s="3" t="b">
-        <f>NOT(A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="3" t="b">
-        <f>B8&lt;&gt;F8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H8" s="3" t="b">
         <f>OR(D8,G8)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="10" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -799,37 +913,41 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="b">
-        <f>IF(D9=B9,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F9" s="3" t="b">
-        <f>NOT(A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="3" t="b">
-        <f>B9&lt;&gt;F9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="3" t="b">
         <f>OR(D9,G9)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="I9" s="10" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -838,82 +956,70 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="b">
-        <f>AND(C14,B12,C12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8" t="b">
+      <c r="H12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="b">
         <f>AND(A13,B13,NOT(C13))</f>
         <v>0</v>
       </c>
-      <c r="F13" s="8" t="b">
-        <f>AND(A13,NOT(B13),NOT(C13))</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8" t="b">
-        <f>AND(NOT(A13),NOT(B13),NOT(C13))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="8" t="b">
+      <c r="E13" s="5" t="b">
+        <f>AND(NOT(A13),B13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="b">
         <f>AND(NOT(A13),NOT(B13),C13)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="8" t="b">
-        <f>AND(NOT(A13),B13,NOT(C13))</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="b">
-        <f>OR(D13:I13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G13" s="5" t="b">
+        <f>AND(NOT(A13),B13,(NOT(C13)))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="b">
+        <f>OR(D13,E13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
@@ -926,37 +1032,31 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="D14" s="3" t="b">
-        <f t="shared" ref="D14:D19" si="3">AND(C15,B13,C13)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="b">
-        <f t="shared" ref="E14:E19" si="4">AND(A14,B14,NOT(C14))</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="b">
-        <f t="shared" ref="F14:F19" si="5">AND(A14,NOT(B14),NOT(C14))</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="b">
-        <f t="shared" ref="G14:G19" si="6">AND(NOT(A14),NOT(B14),NOT(C14))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="b">
-        <f t="shared" ref="H14:H19" si="7">AND(NOT(A14),NOT(B14),C14)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="b">
-        <f t="shared" ref="I14:I19" si="8">AND(NOT(A14),B14,NOT(C14))</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="b">
-        <f>OR(D14:I14)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="b">
+      <c r="D14" s="5" t="b">
+        <f t="shared" ref="D14:D20" si="6">AND(A14,B14,NOT(C14))</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="b">
+        <f t="shared" ref="E14:E20" si="7">AND(NOT(A14),B14,C14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="b">
+        <f t="shared" ref="F14:F20" si="8">AND(NOT(A14),NOT(B14),C14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="b">
+        <f t="shared" ref="G14:G20" si="9">AND(NOT(A14),B14,(NOT(C14)))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="13" t="b">
+        <f t="shared" ref="H14:H20" si="10">OR(D14:G14)</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
@@ -968,39 +1068,33 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="b">
+      <c r="D15" s="5" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="b">
+      <c r="E15" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="b">
+      <c r="F15" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="b">
-        <f t="shared" ref="J14:J19" si="9">OR(D15:I15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="5" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="B16" s="3" t="b">
         <f>FALSE</f>
@@ -1010,36 +1104,30 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="b">
+      <c r="D16" s="5" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I16" s="3" t="b">
+      <c r="F16" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="b">
+      <c r="G16" s="5" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -1049,39 +1137,33 @@
         <v>0</v>
       </c>
       <c r="C17" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="b">
+      <c r="E17" s="5" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="b">
+      <c r="G17" s="5" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -1091,90 +1173,118 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="b">
+      <c r="E18" s="5" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="B19" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="b">
+      <c r="D19" s="5" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="b">
+      <c r="E19" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I19" s="3" t="b">
+      <c r="F19" s="5" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="H19" s="13" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="13" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1187,39 +1297,52 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="B23" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="8" t="b">
+      <c r="A23" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <f>AND(NOT(A23),B23,NOT(C23))</f>
+        <f>OR(NOT(A23),NOT(B23),NOT(C23))</f>
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <f>AND(A23,NOT(B23),NOT(C23))</f>
-        <v>0</v>
+        <f>OR(NOT(A23),B23,NOT(C23))</f>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <f>OR(D23,E23)</f>
+        <f>OR(NOT(A23),B23,C23)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <f>OR(A23,B23,C23)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="b">
+        <f>AND(D23:G23)</f>
         <v>0</v>
       </c>
     </row>
@@ -1237,20 +1360,28 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <f t="shared" ref="D24:D29" si="10">AND(NOT(A24),B24,NOT(C24))</f>
-        <v>0</v>
+        <f t="shared" ref="D24:D30" si="11">OR(NOT(A24),NOT(B24),NOT(C24))</f>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <f t="shared" ref="E24:E29" si="11">AND(A24,NOT(B24),NOT(C24))</f>
-        <v>0</v>
+        <f t="shared" ref="E24:E30" si="12">OR(NOT(A24),B24,NOT(C24))</f>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <f t="shared" ref="F24:F29" si="12">OR(D24,E24)</f>
-        <v>0</v>
+        <f t="shared" ref="F24:F30" si="13">OR(NOT(A24),B24,C24)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <f t="shared" ref="G24:G30" si="14">OR(A24,B24,C24)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="10" t="b">
+        <f t="shared" ref="H24:H30" si="15">AND(D24:G24)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="b">
+      <c r="A25" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
@@ -1263,22 +1394,30 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="b">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="B26" s="3" t="b">
         <f>FALSE</f>
@@ -1289,15 +1428,23 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="b">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -1311,19 +1458,27 @@
         <v>0</v>
       </c>
       <c r="C27" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="11" t="b">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -1337,19 +1492,27 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E28" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="10" t="b">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -1359,37 +1522,79 @@
         <v>0</v>
       </c>
       <c r="B29" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="C29" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1402,47 +1607,42 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="B33" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="8" t="b">
+      <c r="A33" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <f>AND(A33,B33)</f>
-        <v>1</v>
+        <f>AND(B33,NOT(C33))</f>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
-        <f>AND(NOT(A33),NOT(B33))</f>
-        <v>0</v>
-      </c>
-      <c r="F33" t="b">
-        <f>AND(NOT(A33),B33,NOT(C33))</f>
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
+        <f>AND(NOT(A33),C33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="20" t="b">
+        <f>OR(D33,E33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="b">
@@ -1458,24 +1658,21 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <f t="shared" ref="D34:D39" si="13">AND(A34,B34)</f>
+        <f t="shared" ref="D34:D40" si="16">AND(B34,NOT(C34))</f>
         <v>1</v>
       </c>
       <c r="E34" t="b">
-        <f t="shared" ref="E34:E39" si="14">AND(NOT(A34),NOT(B34))</f>
-        <v>0</v>
-      </c>
-      <c r="F34" t="b">
-        <f t="shared" ref="F34:F39" si="15">AND(NOT(A34),B34,NOT(C34))</f>
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <f t="shared" ref="G34:G39" si="16">OR(D34:F34)</f>
-        <v>1</v>
-      </c>
+        <f t="shared" ref="E34:E40" si="17">AND(NOT(A34),C34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="b">
+        <f t="shared" ref="F34:F40" si="18">OR(D34,E34)</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="b">
+      <c r="A35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
@@ -1488,26 +1685,23 @@
         <v>1</v>
       </c>
       <c r="D35" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E35" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F35" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="20" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="B36" s="3" t="b">
         <f>FALSE</f>
@@ -1518,21 +1712,18 @@
         <v>0</v>
       </c>
       <c r="D36" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E36" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="20" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="b">
@@ -1544,25 +1735,22 @@
         <v>0</v>
       </c>
       <c r="C37" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E37" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="20" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="b">
@@ -1574,25 +1762,22 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F38" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="19" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="b">
@@ -1600,37 +1785,66 @@
         <v>0</v>
       </c>
       <c r="B39" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="C39" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D39" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E39" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F39" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="19" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="19" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -1643,31 +1857,38 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="B43" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C43" s="8" t="b">
+      <c r="A43" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <f>OR(A43:B43)</f>
-        <v>1</v>
+        <f>OR(NOT(A43),NOT(C43))</f>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
-        <f>AND(NOT(C43),D43)</f>
+        <f>OR(B43,C43)</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="b">
+        <f>AND(D43,E43)</f>
         <v>0</v>
       </c>
     </row>
@@ -1685,16 +1906,20 @@
         <v>0</v>
       </c>
       <c r="D44" t="b">
-        <f t="shared" ref="D44:D49" si="17">OR(A44:B44)</f>
+        <f t="shared" ref="D44:D50" si="19">OR(NOT(A44),NOT(C44))</f>
         <v>1</v>
       </c>
       <c r="E44" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f t="shared" ref="E44:E50" si="20">OR(B44,C44)</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="10" t="b">
+        <f t="shared" ref="F44:F50" si="21">AND(D44,E44)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="b">
+      <c r="A45" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
@@ -1707,18 +1932,22 @@
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
-        <f t="shared" ref="E44:E49" si="18">AND(NOT(C45),D45)</f>
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="11" t="b">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="B46" s="3" t="b">
         <f>FALSE</f>
@@ -1729,11 +1958,15 @@
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="11" t="b">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -1747,15 +1980,19 @@
         <v>0</v>
       </c>
       <c r="C47" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="D47" t="b">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="11" t="b">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -1769,47 +2006,97 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="D48" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E48" t="b">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="10" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="B49" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="C49" s="3" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E49" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="10" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="10" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="21">
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="B11:H11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
